--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BA06E7-79F0-4730-8ABB-F4A75ADF4107}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27538EC-5ABA-45B5-869D-9550E37DCACF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{CAE23379-0906-4BC3-9743-7E8980F4EC0D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,22 @@
   </si>
   <si>
     <t>돈시나02 인핸서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_R_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리너 인핸서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔한 클리너 인핸서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,13 +283,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,8 +328,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED3CF65-A362-421D-B974-2D5DB1C0F40D}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1054,6 +1098,64 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{A8C89E61-5397-48A0-840B-28C9AAE96ACD}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27538EC-5ABA-45B5-869D-9550E37DCACF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61DD983-2117-48C6-A7EF-DE66C3376CD0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{CAE23379-0906-4BC3-9743-7E8980F4EC0D}"/>
   </bookViews>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED3CF65-A362-421D-B974-2D5DB1C0F40D}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5101</v>
+        <v>6100</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5104</v>
+        <v>6101</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5107</v>
+        <v>6102</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5110</v>
+        <v>6103</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5113</v>
+        <v>6104</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5116</v>
+        <v>6105</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5200</v>
+        <v>6106</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>5201</v>
+        <v>6107</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>

--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61DD983-2117-48C6-A7EF-DE66C3376CD0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{CAE23379-0906-4BC3-9743-7E8980F4EC0D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,18 +254,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클리너 인핸서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깔끔한 클리너 인핸서</t>
+    <t>minkies_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밍키즈 인핸서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소부 인핸서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량한 청소부 인핸서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,26 +670,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED3CF65-A362-421D-B974-2D5DB1C0F40D}">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2100</v>
       </c>
@@ -731,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2101</v>
       </c>
@@ -760,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2102</v>
       </c>
@@ -786,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2103</v>
       </c>
@@ -815,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2104</v>
       </c>
@@ -841,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2105</v>
       </c>
@@ -867,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2106</v>
       </c>
@@ -893,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2107</v>
       </c>
@@ -919,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2108</v>
       </c>
@@ -945,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6100</v>
       </c>
@@ -971,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>6101</v>
       </c>
@@ -997,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>6102</v>
       </c>
@@ -1023,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>6103</v>
       </c>
@@ -1046,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>6104</v>
       </c>
@@ -1072,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>6105</v>
       </c>
@@ -1098,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>6106</v>
       </c>
@@ -1106,7 +1125,7 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1127,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>6107</v>
       </c>
@@ -1135,7 +1154,7 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1156,8 +1175,37 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>6108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{A8C89E61-5397-48A0-840B-28C9AAE96ACD}"/>
+  <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E808ED-21AE-481E-9D15-68D40615095B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="121">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,13 +281,185 @@
   <si>
     <t>불량한 청소부 인핸서</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmithsSmithy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_cat_01_enhancer_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_cat_01_enhancer_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_cat_02_enhancer_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_pitbull_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_pitbull_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_pitbull_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_owl_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_owl_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_crow_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_crow_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_salamander_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_carbannog_03_enhancer</t>
+  </si>
+  <si>
+    <t>13_tag_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_tag_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_tag_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_tim_03_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_01_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02_enhancer</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03_enhancer</t>
+  </si>
+  <si>
+    <t>고양이1 인핸서 00</t>
+  </si>
+  <si>
+    <t>고양이1 인핸서 01</t>
+  </si>
+  <si>
+    <t>고양이2 인핸서 00</t>
+  </si>
+  <si>
+    <t>고양이2 인핸서 01</t>
+  </si>
+  <si>
+    <t>핏불 인핸서 00</t>
+  </si>
+  <si>
+    <t>핏불 인핸서 01</t>
+  </si>
+  <si>
+    <t>핏불 인핸서 02</t>
+  </si>
+  <si>
+    <t>부엉이 인핸서 00</t>
+  </si>
+  <si>
+    <t>부엉이 인핸서 01</t>
+  </si>
+  <si>
+    <t>까마귀 인핸서 00</t>
+  </si>
+  <si>
+    <t>까마귀 인핸서 01</t>
+  </si>
+  <si>
+    <t>도롱뇽 인핸서 00</t>
+  </si>
+  <si>
+    <t>카르바노그 인핸서 00</t>
+  </si>
+  <si>
+    <t>카르바노그 인핸서 01</t>
+  </si>
+  <si>
+    <t>카르바노그 인핸서 02</t>
+  </si>
+  <si>
+    <t>카르바노그 인핸서 03</t>
+  </si>
+  <si>
+    <t>태그 인핸서 00</t>
+  </si>
+  <si>
+    <t>태그 인핸서 01</t>
+  </si>
+  <si>
+    <t>태그 인핸서 02</t>
+  </si>
+  <si>
+    <t>팀 인핸서 00</t>
+  </si>
+  <si>
+    <t>팀 인핸서 01</t>
+  </si>
+  <si>
+    <t>팀 인핸서 02</t>
+  </si>
+  <si>
+    <t>팀 인핸서 03</t>
+  </si>
+  <si>
+    <t>no107_skill_01</t>
+  </si>
+  <si>
+    <t>jake_R_skill_01</t>
+  </si>
+  <si>
+    <t>jake_B_attack</t>
+  </si>
+  <si>
+    <t>매드버디 인핸서 00</t>
+  </si>
+  <si>
+    <t>매드버디 인핸서 01</t>
+  </si>
+  <si>
+    <t>매드버디 인핸서 02</t>
+  </si>
+  <si>
+    <t>매드버디 인핸서 03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +491,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,6 +542,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,26 +863,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2100</v>
       </c>
@@ -750,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2101</v>
       </c>
@@ -779,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2102</v>
       </c>
@@ -805,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2103</v>
       </c>
@@ -834,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2104</v>
       </c>
@@ -860,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2105</v>
       </c>
@@ -886,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2106</v>
       </c>
@@ -912,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2107</v>
       </c>
@@ -938,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2108</v>
       </c>
@@ -964,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6100</v>
       </c>
@@ -990,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6101</v>
       </c>
@@ -1016,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6102</v>
       </c>
@@ -1042,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6103</v>
       </c>
@@ -1065,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6104</v>
       </c>
@@ -1091,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6105</v>
       </c>
@@ -1117,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6106</v>
       </c>
@@ -1146,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6107</v>
       </c>
@@ -1175,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6108</v>
       </c>
@@ -1204,8 +1397,710 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>6109</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>6110</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>6111</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>6112</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>6113</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>6114</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>6115</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>6116</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>6117</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>6118</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>6119</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>6120</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>6121</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>6122</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>6123</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>6124</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>6125</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>6126</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>6127</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>6128</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>6129</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>6130</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>6131</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>6132</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>6133</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>6134</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>6135</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" s="3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,15 +45,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>melee</t>
+    <t>None_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉성한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkersWorkshop</t>
+  </si>
+  <si>
+    <t>None_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보스러운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDC</t>
+  </si>
+  <si>
+    <t>None_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명랑한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상냥한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지루한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmithsSmithy</t>
+  </si>
+  <si>
+    <t>None_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남루한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkersWorkshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍청한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chain_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초라한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,132 +146,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bounce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>splash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엉성한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enhancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weakness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkersWorkshop</t>
-  </si>
-  <si>
-    <t>no107_attaack_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바보스러운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSDC</t>
-  </si>
-  <si>
-    <t>jake_R_skill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명랑한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no107_skill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상냥한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지루한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmithsSmithy</t>
-  </si>
-  <si>
-    <t>doncina_skill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남루한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkersWorkshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jake_B_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멍청한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chain_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초라한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doncina_skill_02</t>
+    <t>meleeSoket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeSoket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounceSoket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -562,14 +530,14 @@
     <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,267 +554,286 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>2100</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2101</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2102</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2103</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>2104</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>2105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>2106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>2107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>2108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,100 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엉성한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enhancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkersWorkshop</t>
-  </si>
-  <si>
-    <t>None_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바보스러운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSDC</t>
-  </si>
-  <si>
-    <t>None_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명랑한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상냥한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지루한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmithsSmithy</t>
-  </si>
-  <si>
-    <t>None_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남루한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkersWorkshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멍청한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chain_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초라한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,6 +62,14 @@
   </si>
   <si>
     <t>bounceSoket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashSoket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abnormalValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,22 +434,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -551,42 +468,36 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -594,7 +505,7 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
@@ -602,28 +513,22 @@
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
@@ -631,28 +536,22 @@
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
@@ -660,20 +559,14 @@
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -681,7 +574,7 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
@@ -689,28 +582,22 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <v>1</v>
       </c>
     </row>
@@ -718,17 +605,11 @@
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -737,9 +618,9 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
     </row>
@@ -747,20 +628,14 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -768,7 +643,7 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <v>2</v>
       </c>
     </row>
@@ -776,62 +651,372 @@
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2022</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:I10"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>meleeSoket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +66,18 @@
   </si>
   <si>
     <t>abnormalValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,11 +442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -454,7 +462,7 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,28 +476,37 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2000</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -508,11 +525,20 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2001</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -531,11 +557,20 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2002</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
@@ -554,11 +589,20 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2003</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -577,11 +621,20 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2004</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -600,11 +653,20 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2005</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -623,11 +685,20 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2006</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
@@ -646,11 +717,20 @@
       <c r="I8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2007</v>
       </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -669,11 +749,20 @@
       <c r="I9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2008</v>
       </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -692,11 +781,20 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2009</v>
       </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -715,11 +813,20 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2010</v>
       </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
@@ -738,11 +845,20 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2011</v>
       </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
@@ -761,11 +877,20 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2012</v>
       </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -784,11 +909,20 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2013</v>
       </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -807,11 +941,20 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2014</v>
       </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
@@ -830,11 +973,20 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2015</v>
       </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -853,11 +1005,20 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2016</v>
       </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -876,11 +1037,20 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2017</v>
       </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
@@ -899,11 +1069,20 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2018</v>
       </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
@@ -922,11 +1101,20 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2019</v>
       </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
@@ -945,11 +1133,20 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2020</v>
       </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
@@ -968,11 +1165,20 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2021</v>
       </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
@@ -991,11 +1197,20 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>2022</v>
       </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
@@ -1014,9 +1229,12 @@
       <c r="I24">
         <v>1</v>
       </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I10"/>
+  <autoFilter ref="A1:K10"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580989B5-4335-42CC-904C-D21EAB3AD609}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="15">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,13 +79,21 @@
   </si>
   <si>
     <t>coolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,8 +139,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,28 +459,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K33" sqref="K33"/>
+      <selection pane="topRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -529,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -561,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -593,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -625,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -657,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -689,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -721,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -753,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -785,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -817,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -849,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -881,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -913,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -945,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -977,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -1041,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -1073,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1169,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1233,8 +1251,107 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K10"/>
+  <autoFilter ref="A1:K10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580989B5-4335-42CC-904C-D21EAB3AD609}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA09E43A-7653-43B9-B814-260109E0D8F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="15">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A27" sqref="A27"/>
+      <selection pane="topRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1256,10 +1256,10 @@
         <v>2023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>4</v>
@@ -1289,10 +1289,10 @@
         <v>2024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -1322,10 +1322,10 @@
         <v>2025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -1347,6 +1347,105 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
         <v>0.3</v>
       </c>
     </row>

--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA09E43A-7653-43B9-B814-260109E0D8F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2795F-2EA8-4EF4-9A23-201389F898BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,7 +86,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 공격</t>
+    <t>반짝이는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가벼운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번쩍이는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기운찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정밀한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔탁한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃피는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡다한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고약한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨거운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질척한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끈적한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌릿한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영롱한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무거운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차가운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과열된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹호의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비로운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흙의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,9 +566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B27" sqref="B27"/>
+      <selection pane="topRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -555,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -587,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -619,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -651,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -683,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -715,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -747,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -779,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -811,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -843,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -875,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -907,7 +1011,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -939,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -971,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1003,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1035,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1067,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1099,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1131,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1163,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1195,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -1227,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1259,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>4</v>
@@ -1292,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -1325,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -1358,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>4</v>
@@ -1391,7 +1495,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
@@ -1424,7 +1528,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4</v>

--- a/DesignDocs/VariableData/TubeEnhancer.xlsx
+++ b/DesignDocs/VariableData/TubeEnhancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2795F-2EA8-4EF4-9A23-201389F898BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3A613A-B0FB-48A0-A154-108EC9934D45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,9 +566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C28" sqref="C28"/>
+      <selection pane="topRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
